--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3928548.2725272</v>
+        <v>3926126.652768586</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90433.5014686394</v>
+        <v>90433.50146863972</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7282649.762702296</v>
+        <v>7282649.762702297</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.320609450350308</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.98257855592842</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="H2" t="n">
-        <v>14.98257855592842</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>14.98257855592842</v>
+        <v>6.320609450350323</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>13.19665519206176</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>14.98257855592842</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>13.19665519206175</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>14.98257855592842</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>14.98257855592842</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>14.98257855592843</v>
       </c>
     </row>
     <row r="4">
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>14.98257855592842</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>14.98257855592842</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>13.19665519206175</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="X4" t="n">
-        <v>14.98257855592842</v>
+        <v>13.19665519206176</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>14.98257855592842</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,7 +911,7 @@
         <v>14.25123132516825</v>
       </c>
       <c r="H5" t="n">
-        <v>14.98257855592842</v>
+        <v>7.051956681110497</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>7.051956681110491</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>14.98257855592842</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="T6" t="n">
-        <v>14.98257855592842</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>14.98257855592842</v>
+        <v>13.19665519206175</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.19665519206175</v>
+        <v>14.98257855592843</v>
       </c>
     </row>
     <row r="7">
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>14.98257855592842</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>13.19665519206175</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>14.98257855592842</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>13.19665519206176</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>14.98257855592842</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>43.65304964896012</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="F8" t="n">
-        <v>239.8079481415045</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="H8" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>239.8079481415045</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>204.3467949813262</v>
       </c>
     </row>
     <row r="9">
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>102.0058425423339</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>128.1808080653103</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.7304697839762</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>141.1998894567827</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112663</v>
       </c>
       <c r="C11" t="n">
         <v>333.6626894187936</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T11" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U11" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V11" t="n">
         <v>296.142056117921</v>
@@ -1464,10 +1464,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H12" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I12" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C13" t="n">
         <v>135.6366187464139</v>
       </c>
       <c r="D13" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E13" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F13" t="n">
         <v>113.8108456707173</v>
@@ -1546,7 +1546,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I13" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S13" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T13" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U13" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V13" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W13" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X13" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y13" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T14" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545717</v>
       </c>
       <c r="U14" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V14" t="n">
         <v>296.142056117921</v>
@@ -1701,10 +1701,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H15" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C16" t="n">
         <v>135.6366187464139</v>
@@ -1771,10 +1771,10 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E16" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F16" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707162</v>
       </c>
       <c r="G16" t="n">
         <v>134.0758985510282</v>
@@ -1783,7 +1783,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I16" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S16" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T16" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U16" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V16" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W16" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X16" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y16" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684678</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E17" t="n">
         <v>350.3201677200478</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V17" t="n">
         <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651987</v>
       </c>
       <c r="X17" t="n">
         <v>338.1208983262551</v>
@@ -1938,10 +1938,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H18" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
         <v>135.6366187464139</v>
@@ -2008,7 +2008,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
         <v>113.8108456707173</v>
@@ -2017,10 +2017,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442985</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V19" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W19" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187933</v>
       </c>
       <c r="D20" t="n">
         <v>323.072839268469</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
@@ -2147,7 +2147,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038383</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H21" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C22" t="n">
         <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659973</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
         <v>113.8108456707173</v>
@@ -2254,10 +2254,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V22" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W22" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="23">
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642294995</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
         <v>219.3243840645688</v>
@@ -2412,10 +2412,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H24" t="n">
-        <v>85.68348164116146</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902189021</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C25" t="n">
         <v>135.6366187464139</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
@@ -2530,13 +2530,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V25" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W25" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
         <v>194.0994530368232</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H28" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>73.65767465442973</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>218.097472392356</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1933087134791</v>
+        <v>219.5538296862035</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>260.3370803893986</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,7 +2959,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>46.30814566459069</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>73.65767465442973</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T31" t="n">
         <v>218.097472392356</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.89947696231609</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187934</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0728392684688</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894973</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247496</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
-        <v>255.2416659947557</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.3201464229516</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W32" t="n">
-        <v>317.6307663651989</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262549</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464137</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659982</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707171</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G34" t="n">
-        <v>134.075898551028</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053443043</v>
+        <v>110.1245053443007</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139452995</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221561</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424831</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401419</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V34" t="n">
-        <v>220.5274409716139</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W34" t="n">
-        <v>254.9127959843769</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X34" t="n">
-        <v>194.099453036823</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="35">
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U35" t="n">
         <v>219.3243840645688</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C37" t="n">
         <v>135.6366187464139</v>
@@ -3430,7 +3430,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943561</v>
       </c>
       <c r="F37" t="n">
         <v>113.8108456707173</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3478,13 +3478,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V37" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W37" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X37" t="n">
         <v>194.0994530368232</v>
@@ -3560,7 +3560,7 @@
         <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179206</v>
       </c>
       <c r="W38" t="n">
         <v>317.6307663651991</v>
@@ -3569,7 +3569,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038391</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="39">
@@ -3667,7 +3667,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943547</v>
       </c>
       <c r="F40" t="n">
         <v>113.8108456707173</v>
@@ -3676,10 +3676,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053443002</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3907,16 +3907,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707168</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510278</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H43" t="n">
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>378.5542040247497</v>
       </c>
       <c r="H44" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295169</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545723</v>
@@ -4138,10 +4138,10 @@
         <v>135.6366187464138</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F46" t="n">
         <v>113.8108456707172</v>
@@ -4150,10 +4150,10 @@
         <v>134.0758985510281</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053443016</v>
+        <v>110.1245053443019</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453006</v>
+        <v>54.52629139453003</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221572</v>
+        <v>42.0474723022157</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T46" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612651</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V46" t="n">
         <v>220.527440971614</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.79639649045265</v>
+        <v>23.27802476693878</v>
       </c>
       <c r="C2" t="n">
-        <v>44.79639649045265</v>
+        <v>23.27802476693878</v>
       </c>
       <c r="D2" t="n">
-        <v>44.79639649045265</v>
+        <v>23.27802476693878</v>
       </c>
       <c r="E2" t="n">
-        <v>38.41194250019981</v>
+        <v>23.27802476693878</v>
       </c>
       <c r="F2" t="n">
-        <v>31.46644175099634</v>
+        <v>16.33252401773531</v>
       </c>
       <c r="G2" t="n">
-        <v>16.33252401773531</v>
+        <v>1.198606284474274</v>
       </c>
       <c r="H2" t="n">
         <v>1.198606284474274</v>
@@ -4331,49 +4331,49 @@
         <v>1.198606284474274</v>
       </c>
       <c r="K2" t="n">
-        <v>1.198606284474274</v>
+        <v>15.43205591260629</v>
       </c>
       <c r="L2" t="n">
-        <v>16.03135905484341</v>
+        <v>15.43205591260629</v>
       </c>
       <c r="M2" t="n">
-        <v>30.86411182521255</v>
+        <v>30.26480868297543</v>
       </c>
       <c r="N2" t="n">
-        <v>45.09756145334455</v>
+        <v>45.09756145334457</v>
       </c>
       <c r="O2" t="n">
-        <v>59.93031422371369</v>
+        <v>45.09756145334457</v>
       </c>
       <c r="P2" t="n">
-        <v>59.93031422371369</v>
+        <v>59.93031422371371</v>
       </c>
       <c r="Q2" t="n">
-        <v>59.93031422371369</v>
+        <v>59.93031422371371</v>
       </c>
       <c r="R2" t="n">
-        <v>44.79639649045265</v>
+        <v>53.54586023346086</v>
       </c>
       <c r="S2" t="n">
-        <v>44.79639649045265</v>
+        <v>53.54586023346086</v>
       </c>
       <c r="T2" t="n">
-        <v>44.79639649045265</v>
+        <v>38.41194250019982</v>
       </c>
       <c r="U2" t="n">
-        <v>44.79639649045265</v>
+        <v>23.27802476693878</v>
       </c>
       <c r="V2" t="n">
-        <v>44.79639649045265</v>
+        <v>23.27802476693878</v>
       </c>
       <c r="W2" t="n">
-        <v>44.79639649045265</v>
+        <v>23.27802476693878</v>
       </c>
       <c r="X2" t="n">
-        <v>44.79639649045265</v>
+        <v>23.27802476693878</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.79639649045265</v>
+        <v>23.27802476693878</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.33252401773531</v>
+        <v>14.5285610239306</v>
       </c>
       <c r="C3" t="n">
-        <v>16.33252401773531</v>
+        <v>14.5285610239306</v>
       </c>
       <c r="D3" t="n">
-        <v>16.33252401773531</v>
+        <v>1.198606284474274</v>
       </c>
       <c r="E3" t="n">
-        <v>16.33252401773531</v>
+        <v>1.198606284474274</v>
       </c>
       <c r="F3" t="n">
         <v>1.198606284474274</v>
@@ -4407,52 +4407,52 @@
         <v>1.198606284474274</v>
       </c>
       <c r="J3" t="n">
-        <v>1.198606284474274</v>
+        <v>15.43205591260629</v>
       </c>
       <c r="K3" t="n">
-        <v>1.198606284474274</v>
+        <v>30.26480868297543</v>
       </c>
       <c r="L3" t="n">
-        <v>1.198606284474274</v>
+        <v>30.26480868297543</v>
       </c>
       <c r="M3" t="n">
-        <v>16.03135905484341</v>
+        <v>45.09756145334457</v>
       </c>
       <c r="N3" t="n">
-        <v>30.26480868297542</v>
+        <v>59.93031422371371</v>
       </c>
       <c r="O3" t="n">
-        <v>45.09756145334455</v>
+        <v>59.93031422371371</v>
       </c>
       <c r="P3" t="n">
-        <v>45.09756145334455</v>
+        <v>59.93031422371371</v>
       </c>
       <c r="Q3" t="n">
-        <v>59.93031422371369</v>
+        <v>59.93031422371371</v>
       </c>
       <c r="R3" t="n">
-        <v>59.93031422371369</v>
+        <v>59.93031422371371</v>
       </c>
       <c r="S3" t="n">
-        <v>46.60035948425737</v>
+        <v>59.93031422371371</v>
       </c>
       <c r="T3" t="n">
-        <v>46.60035948425737</v>
+        <v>59.93031422371371</v>
       </c>
       <c r="U3" t="n">
-        <v>31.46644175099634</v>
+        <v>44.79639649045267</v>
       </c>
       <c r="V3" t="n">
-        <v>31.46644175099634</v>
+        <v>44.79639649045267</v>
       </c>
       <c r="W3" t="n">
-        <v>31.46644175099634</v>
+        <v>44.79639649045267</v>
       </c>
       <c r="X3" t="n">
-        <v>16.33252401773531</v>
+        <v>44.79639649045267</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.33252401773531</v>
+        <v>29.66247875719164</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.79639649045265</v>
+        <v>1.198606284474274</v>
       </c>
       <c r="C4" t="n">
-        <v>44.79639649045265</v>
+        <v>1.198606284474274</v>
       </c>
       <c r="D4" t="n">
-        <v>29.66247875719162</v>
+        <v>1.198606284474274</v>
       </c>
       <c r="E4" t="n">
-        <v>29.66247875719162</v>
+        <v>1.198606284474274</v>
       </c>
       <c r="F4" t="n">
-        <v>14.52856102393059</v>
+        <v>1.198606284474274</v>
       </c>
       <c r="G4" t="n">
-        <v>14.52856102393059</v>
+        <v>1.198606284474274</v>
       </c>
       <c r="H4" t="n">
         <v>1.198606284474274</v>
@@ -4492,46 +4492,46 @@
         <v>1.198606284474274</v>
       </c>
       <c r="L4" t="n">
-        <v>16.03135905484341</v>
+        <v>15.76347418644684</v>
       </c>
       <c r="M4" t="n">
-        <v>30.26480868297542</v>
+        <v>30.59622695681598</v>
       </c>
       <c r="N4" t="n">
-        <v>45.09756145334455</v>
+        <v>45.42897972718512</v>
       </c>
       <c r="O4" t="n">
-        <v>59.93031422371369</v>
+        <v>45.42897972718512</v>
       </c>
       <c r="P4" t="n">
-        <v>59.93031422371369</v>
+        <v>59.93031422371371</v>
       </c>
       <c r="Q4" t="n">
-        <v>59.93031422371369</v>
+        <v>59.93031422371371</v>
       </c>
       <c r="R4" t="n">
-        <v>59.93031422371369</v>
+        <v>44.79639649045267</v>
       </c>
       <c r="S4" t="n">
-        <v>59.93031422371369</v>
+        <v>44.79639649045267</v>
       </c>
       <c r="T4" t="n">
-        <v>59.93031422371369</v>
+        <v>29.66247875719164</v>
       </c>
       <c r="U4" t="n">
-        <v>59.93031422371369</v>
+        <v>29.66247875719164</v>
       </c>
       <c r="V4" t="n">
-        <v>59.93031422371369</v>
+        <v>29.66247875719164</v>
       </c>
       <c r="W4" t="n">
-        <v>59.93031422371369</v>
+        <v>14.5285610239306</v>
       </c>
       <c r="X4" t="n">
-        <v>44.79639649045265</v>
+        <v>1.198606284474274</v>
       </c>
       <c r="Y4" t="n">
-        <v>44.79639649045265</v>
+        <v>1.198606284474274</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.80712565693541</v>
+        <v>29.66247875719164</v>
       </c>
       <c r="C5" t="n">
-        <v>52.80712565693541</v>
+        <v>29.66247875719164</v>
       </c>
       <c r="D5" t="n">
-        <v>52.80712565693541</v>
+        <v>29.66247875719164</v>
       </c>
       <c r="E5" t="n">
-        <v>37.67320792367438</v>
+        <v>29.66247875719164</v>
       </c>
       <c r="F5" t="n">
-        <v>30.72770717447091</v>
+        <v>22.71697800798816</v>
       </c>
       <c r="G5" t="n">
-        <v>16.33252401773531</v>
+        <v>8.321794851252555</v>
       </c>
       <c r="H5" t="n">
         <v>1.198606284474274</v>
@@ -4565,52 +4565,52 @@
         <v>1.198606284474274</v>
       </c>
       <c r="J5" t="n">
-        <v>15.43205591260628</v>
+        <v>15.43205591260629</v>
       </c>
       <c r="K5" t="n">
-        <v>30.26480868297542</v>
+        <v>15.43205591260629</v>
       </c>
       <c r="L5" t="n">
-        <v>45.09756145334455</v>
+        <v>15.43205591260629</v>
       </c>
       <c r="M5" t="n">
-        <v>45.09756145334455</v>
+        <v>30.26480868297543</v>
       </c>
       <c r="N5" t="n">
-        <v>45.09756145334455</v>
+        <v>45.09756145334457</v>
       </c>
       <c r="O5" t="n">
-        <v>45.09756145334455</v>
+        <v>59.93031422371371</v>
       </c>
       <c r="P5" t="n">
-        <v>45.09756145334455</v>
+        <v>59.93031422371371</v>
       </c>
       <c r="Q5" t="n">
-        <v>59.93031422371369</v>
+        <v>59.93031422371371</v>
       </c>
       <c r="R5" t="n">
-        <v>52.80712565693541</v>
+        <v>59.93031422371371</v>
       </c>
       <c r="S5" t="n">
-        <v>52.80712565693541</v>
+        <v>59.93031422371371</v>
       </c>
       <c r="T5" t="n">
-        <v>52.80712565693541</v>
+        <v>44.79639649045267</v>
       </c>
       <c r="U5" t="n">
-        <v>52.80712565693541</v>
+        <v>29.66247875719164</v>
       </c>
       <c r="V5" t="n">
-        <v>52.80712565693541</v>
+        <v>29.66247875719164</v>
       </c>
       <c r="W5" t="n">
-        <v>52.80712565693541</v>
+        <v>29.66247875719164</v>
       </c>
       <c r="X5" t="n">
-        <v>52.80712565693541</v>
+        <v>29.66247875719164</v>
       </c>
       <c r="Y5" t="n">
-        <v>52.80712565693541</v>
+        <v>29.66247875719164</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.33252401773531</v>
+        <v>1.198606284474274</v>
       </c>
       <c r="C6" t="n">
-        <v>16.33252401773531</v>
+        <v>1.198606284474274</v>
       </c>
       <c r="D6" t="n">
-        <v>16.33252401773531</v>
+        <v>1.198606284474274</v>
       </c>
       <c r="E6" t="n">
         <v>1.198606284474274</v>
@@ -4644,52 +4644,52 @@
         <v>1.198606284474274</v>
       </c>
       <c r="J6" t="n">
-        <v>16.03135905484341</v>
+        <v>15.01888350225366</v>
       </c>
       <c r="K6" t="n">
-        <v>16.03135905484341</v>
+        <v>29.8516362726228</v>
       </c>
       <c r="L6" t="n">
-        <v>30.86411182521255</v>
+        <v>29.8516362726228</v>
       </c>
       <c r="M6" t="n">
-        <v>31.27728423556518</v>
+        <v>30.26480868297543</v>
       </c>
       <c r="N6" t="n">
-        <v>46.11003700593432</v>
+        <v>45.09756145334457</v>
       </c>
       <c r="O6" t="n">
-        <v>46.11003700593432</v>
+        <v>45.09756145334457</v>
       </c>
       <c r="P6" t="n">
-        <v>46.11003700593432</v>
+        <v>45.09756145334457</v>
       </c>
       <c r="Q6" t="n">
-        <v>59.93031422371369</v>
+        <v>59.93031422371371</v>
       </c>
       <c r="R6" t="n">
-        <v>59.93031422371369</v>
+        <v>59.93031422371371</v>
       </c>
       <c r="S6" t="n">
-        <v>59.93031422371369</v>
+        <v>44.79639649045267</v>
       </c>
       <c r="T6" t="n">
-        <v>44.79639649045265</v>
+        <v>44.79639649045267</v>
       </c>
       <c r="U6" t="n">
-        <v>29.66247875719162</v>
+        <v>31.46644175099635</v>
       </c>
       <c r="V6" t="n">
-        <v>29.66247875719162</v>
+        <v>16.33252401773531</v>
       </c>
       <c r="W6" t="n">
-        <v>29.66247875719162</v>
+        <v>16.33252401773531</v>
       </c>
       <c r="X6" t="n">
-        <v>29.66247875719162</v>
+        <v>16.33252401773531</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.33252401773531</v>
+        <v>1.198606284474274</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.79639649045265</v>
+        <v>1.198606284474274</v>
       </c>
       <c r="C7" t="n">
-        <v>44.79639649045265</v>
+        <v>1.198606284474274</v>
       </c>
       <c r="D7" t="n">
-        <v>29.66247875719162</v>
+        <v>1.198606284474274</v>
       </c>
       <c r="E7" t="n">
-        <v>16.33252401773531</v>
+        <v>1.198606284474274</v>
       </c>
       <c r="F7" t="n">
-        <v>16.33252401773531</v>
+        <v>1.198606284474274</v>
       </c>
       <c r="G7" t="n">
         <v>1.198606284474274</v>
@@ -4726,49 +4726,49 @@
         <v>1.198606284474274</v>
       </c>
       <c r="K7" t="n">
+        <v>16.03135905484342</v>
+      </c>
+      <c r="L7" t="n">
+        <v>16.03135905484342</v>
+      </c>
+      <c r="M7" t="n">
+        <v>30.26480868297543</v>
+      </c>
+      <c r="N7" t="n">
+        <v>45.09756145334457</v>
+      </c>
+      <c r="O7" t="n">
+        <v>45.09756145334457</v>
+      </c>
+      <c r="P7" t="n">
+        <v>59.93031422371371</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>44.79639649045267</v>
+      </c>
+      <c r="R7" t="n">
+        <v>29.66247875719164</v>
+      </c>
+      <c r="S7" t="n">
+        <v>29.66247875719164</v>
+      </c>
+      <c r="T7" t="n">
+        <v>16.33252401773531</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.198606284474274</v>
       </c>
-      <c r="L7" t="n">
-        <v>16.03135905484341</v>
-      </c>
-      <c r="M7" t="n">
-        <v>30.86411182521255</v>
-      </c>
-      <c r="N7" t="n">
-        <v>45.09756145334455</v>
-      </c>
-      <c r="O7" t="n">
-        <v>45.09756145334455</v>
-      </c>
-      <c r="P7" t="n">
-        <v>59.93031422371369</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>59.93031422371369</v>
-      </c>
-      <c r="R7" t="n">
-        <v>59.93031422371369</v>
-      </c>
-      <c r="S7" t="n">
-        <v>59.93031422371369</v>
-      </c>
-      <c r="T7" t="n">
-        <v>59.93031422371369</v>
-      </c>
-      <c r="U7" t="n">
-        <v>59.93031422371369</v>
-      </c>
       <c r="V7" t="n">
-        <v>59.93031422371369</v>
+        <v>1.198606284474274</v>
       </c>
       <c r="W7" t="n">
-        <v>59.93031422371369</v>
+        <v>1.198606284474274</v>
       </c>
       <c r="X7" t="n">
-        <v>44.79639649045265</v>
+        <v>1.198606284474274</v>
       </c>
       <c r="Y7" t="n">
-        <v>44.79639649045265</v>
+        <v>1.198606284474274</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>560.7865044148617</v>
+        <v>510.5906378964938</v>
       </c>
       <c r="C8" t="n">
-        <v>516.6925148704576</v>
+        <v>510.5906378964938</v>
       </c>
       <c r="D8" t="n">
-        <v>516.6925148704576</v>
+        <v>510.5906378964938</v>
       </c>
       <c r="E8" t="n">
-        <v>516.6925148704576</v>
+        <v>268.3603872485089</v>
       </c>
       <c r="F8" t="n">
-        <v>274.4622642224732</v>
+        <v>261.4148864993054</v>
       </c>
       <c r="G8" t="n">
-        <v>261.4148864993047</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="H8" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="I8" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="J8" t="n">
-        <v>40.41888584470354</v>
+        <v>40.41888584470377</v>
       </c>
       <c r="K8" t="n">
-        <v>122.9820404192956</v>
+        <v>122.9820404192961</v>
       </c>
       <c r="L8" t="n">
-        <v>262.3106962605483</v>
+        <v>262.310696260549</v>
       </c>
       <c r="M8" t="n">
-        <v>449.0101090859556</v>
+        <v>449.0101090859566</v>
       </c>
       <c r="N8" t="n">
-        <v>643.3443219779376</v>
+        <v>643.3443219779393</v>
       </c>
       <c r="O8" t="n">
-        <v>813.5133472948968</v>
+        <v>813.5133472948989</v>
       </c>
       <c r="P8" t="n">
-        <v>924.2476725444232</v>
+        <v>924.2476725444254</v>
       </c>
       <c r="Q8" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="R8" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="S8" t="n">
-        <v>803.0167550628461</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="T8" t="n">
-        <v>803.0167550628461</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="U8" t="n">
-        <v>803.0167550628461</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="V8" t="n">
-        <v>560.7865044148617</v>
+        <v>717.0015419180355</v>
       </c>
       <c r="W8" t="n">
-        <v>560.7865044148617</v>
+        <v>717.0015419180355</v>
       </c>
       <c r="X8" t="n">
-        <v>560.7865044148617</v>
+        <v>717.0015419180355</v>
       </c>
       <c r="Y8" t="n">
-        <v>560.7865044148617</v>
+        <v>510.5906378964938</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>648.3440877722692</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="C9" t="n">
-        <v>473.8910584911422</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="D9" t="n">
-        <v>324.9566488298909</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="E9" t="n">
-        <v>165.7191938244354</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="F9" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="G9" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="H9" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="I9" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="J9" t="n">
-        <v>19.18463585132036</v>
+        <v>85.30141548166362</v>
       </c>
       <c r="K9" t="n">
-        <v>86.79245551467723</v>
+        <v>152.9092351450207</v>
       </c>
       <c r="L9" t="n">
-        <v>224.022053530371</v>
+        <v>290.1388331607146</v>
       </c>
       <c r="M9" t="n">
-        <v>403.5193898849756</v>
+        <v>469.6361695153195</v>
       </c>
       <c r="N9" t="n">
-        <v>602.17613153764</v>
+        <v>668.2929111679841</v>
       </c>
       <c r="O9" t="n">
-        <v>761.6884442064004</v>
+        <v>827.8052238367447</v>
       </c>
       <c r="P9" t="n">
-        <v>870.378071733699</v>
+        <v>936.4948513640436</v>
       </c>
       <c r="Q9" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="R9" t="n">
-        <v>959.231792566018</v>
+        <v>938.1198929682073</v>
       </c>
       <c r="S9" t="n">
-        <v>959.231792566018</v>
+        <v>788.653103830842</v>
       </c>
       <c r="T9" t="n">
-        <v>959.231792566018</v>
+        <v>591.6638079909296</v>
       </c>
       <c r="U9" t="n">
-        <v>959.231792566018</v>
+        <v>462.188244288596</v>
       </c>
       <c r="V9" t="n">
-        <v>959.231792566018</v>
+        <v>227.0361360568533</v>
       </c>
       <c r="W9" t="n">
-        <v>959.231792566018</v>
+        <v>227.0361360568533</v>
       </c>
       <c r="X9" t="n">
-        <v>751.3802923604852</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="Y9" t="n">
-        <v>751.3802923604852</v>
+        <v>19.18463585132041</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>807.9888937943249</v>
+        <v>309.7238804001607</v>
       </c>
       <c r="C10" t="n">
-        <v>639.052710866418</v>
+        <v>309.7238804001607</v>
       </c>
       <c r="D10" t="n">
-        <v>488.9360714540823</v>
+        <v>167.0977294337135</v>
       </c>
       <c r="E10" t="n">
-        <v>488.9360714540823</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="F10" t="n">
-        <v>342.0461239561719</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="G10" t="n">
-        <v>173.4392789515553</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="H10" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="I10" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="J10" t="n">
-        <v>19.18463585132036</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="K10" t="n">
-        <v>120.2325654469301</v>
+        <v>120.2325654469302</v>
       </c>
       <c r="L10" t="n">
-        <v>305.0655603477483</v>
+        <v>305.0655603477486</v>
       </c>
       <c r="M10" t="n">
-        <v>510.3351610669861</v>
+        <v>510.3351610669865</v>
       </c>
       <c r="N10" t="n">
-        <v>716.1585259030903</v>
+        <v>716.1585259030908</v>
       </c>
       <c r="O10" t="n">
-        <v>833.7842159674025</v>
+        <v>890.2534212916896</v>
       </c>
       <c r="P10" t="n">
-        <v>959.231792566018</v>
+        <v>955.8134731456606</v>
       </c>
       <c r="Q10" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="R10" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="S10" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660205</v>
       </c>
       <c r="T10" t="n">
-        <v>959.231792566018</v>
+        <v>733.6025958783855</v>
       </c>
       <c r="U10" t="n">
-        <v>959.231792566018</v>
+        <v>491.3723452304005</v>
       </c>
       <c r="V10" t="n">
-        <v>959.231792566018</v>
+        <v>491.3723452304005</v>
       </c>
       <c r="W10" t="n">
-        <v>959.231792566018</v>
+        <v>491.3723452304005</v>
       </c>
       <c r="X10" t="n">
-        <v>959.231792566018</v>
+        <v>491.3723452304005</v>
       </c>
       <c r="Y10" t="n">
-        <v>959.231792566018</v>
+        <v>491.3723452304005</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C11" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D11" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E11" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F11" t="n">
-        <v>725.1782574796669</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G11" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H11" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I11" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J11" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K11" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L11" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M11" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N11" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O11" t="n">
         <v>3311.067850233287</v>
@@ -5063,28 +5063,28 @@
         <v>4142.907144767227</v>
       </c>
       <c r="R11" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S11" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T11" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U11" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V11" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W11" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X11" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y11" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5115,7 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I12" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J12" t="n">
         <v>216.5575109835859</v>
@@ -5124,22 +5124,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L12" t="n">
-        <v>973.3971899277775</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.315654538066</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="N12" t="n">
-        <v>1522.315654538066</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O12" t="n">
-        <v>2028.720609486316</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P12" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R12" t="n">
         <v>2555.644190323788</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C13" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D13" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E13" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F13" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G13" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H13" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I13" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J13" t="n">
         <v>185.1742787042784</v>
@@ -5212,19 +5212,19 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O13" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P13" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q13" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R13" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S13" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T13" t="n">
         <v>2144.901839127668</v>
@@ -5255,7 +5255,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C14" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D14" t="n">
         <v>1458.093420216582</v>
@@ -5264,55 +5264,55 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F14" t="n">
-        <v>725.178257479667</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G14" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H14" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076835</v>
+        <v>337.4933016076842</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951446</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L14" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S14" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T14" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U14" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V14" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W14" t="n">
         <v>3175.879079437414</v>
@@ -5352,28 +5352,28 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J15" t="n">
-        <v>165.625743894656</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K15" t="n">
-        <v>468.6667932445202</v>
+        <v>259.8188512332393</v>
       </c>
       <c r="L15" t="n">
-        <v>922.4654228388475</v>
+        <v>713.6174808275667</v>
       </c>
       <c r="M15" t="n">
-        <v>1471.383887449136</v>
+        <v>1262.535945437856</v>
       </c>
       <c r="N15" t="n">
-        <v>2049.239235375539</v>
+        <v>1840.391293364258</v>
       </c>
       <c r="O15" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="P15" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q15" t="n">
         <v>2555.644190323788</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>872.8624197502098</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C16" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477707</v>
       </c>
       <c r="D16" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609036</v>
       </c>
       <c r="E16" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039791</v>
       </c>
       <c r="F16" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G16" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H16" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J16" t="n">
         <v>185.1742787042784</v>
@@ -5464,22 +5464,22 @@
         <v>2333.272818966195</v>
       </c>
       <c r="T16" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U16" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W16" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X16" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y16" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D17" t="n">
         <v>1458.093420216582</v>
@@ -5501,22 +5501,22 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G17" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
@@ -5528,37 +5528,37 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P17" t="n">
         <v>3813.656640612703</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>468.6667932445202</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="L18" t="n">
-        <v>922.4654228388475</v>
+        <v>301.7509472448914</v>
       </c>
       <c r="M18" t="n">
-        <v>1471.383887449136</v>
+        <v>850.6694118551806</v>
       </c>
       <c r="N18" t="n">
-        <v>2049.239235375539</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O18" t="n">
-        <v>2555.644190323788</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P18" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502099</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477707</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609036</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039791</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315374</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749432</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
         <v>185.1742787042784</v>
@@ -5701,22 +5701,22 @@
         <v>2333.272818966195</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U19" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X19" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="20">
@@ -5738,25 +5738,25 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951443</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M20" t="n">
         <v>2001.213713746738</v>
@@ -5765,34 +5765,34 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y20" t="n">
         <v>2476.13298385146</v>
@@ -5826,22 +5826,22 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K21" t="n">
-        <v>301.7509472448922</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L21" t="n">
-        <v>301.7509472448922</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M21" t="n">
-        <v>850.6694118551811</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N21" t="n">
-        <v>1428.524759781583</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O21" t="n">
         <v>1934.929714729833</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502099</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477707</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F22" t="n">
         <v>386.7245456315385</v>
@@ -5905,7 +5905,7 @@
         <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
         <v>185.1742787042784</v>
@@ -5938,22 +5938,22 @@
         <v>2333.272818966195</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U22" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X22" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5975,16 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
         <v>337.4933016076839</v>
@@ -5996,28 +5996,28 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U23" t="n">
         <v>3795.851627400162</v>
@@ -6063,19 +6063,19 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K24" t="n">
-        <v>425.8076655769671</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L24" t="n">
-        <v>879.6062951712944</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M24" t="n">
-        <v>1428.524759781583</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N24" t="n">
         <v>1428.524759781583</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D25" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K25" t="n">
         <v>459.5287020443611</v>
@@ -6172,10 +6172,10 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U25" t="n">
         <v>1887.747186237502</v>
@@ -6203,7 +6203,7 @@
         <v>2334.922984192267</v>
       </c>
       <c r="C26" t="n">
-        <v>1965.960467251856</v>
+        <v>1965.960467251855</v>
       </c>
       <c r="D26" t="n">
         <v>1607.694768645105</v>
@@ -6212,16 +6212,16 @@
         <v>1221.906516046861</v>
       </c>
       <c r="F26" t="n">
-        <v>810.9206112572535</v>
+        <v>810.9206112572533</v>
       </c>
       <c r="G26" t="n">
-        <v>396.6131300684013</v>
+        <v>396.613130068401</v>
       </c>
       <c r="H26" t="n">
-        <v>106.8637681017652</v>
+        <v>106.8637681017653</v>
       </c>
       <c r="I26" t="n">
-        <v>94.35833540878042</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="J26" t="n">
         <v>346.8712280413478</v>
@@ -6236,25 +6236,25 @@
         <v>2010.591640180402</v>
       </c>
       <c r="N26" t="n">
-        <v>3124.122980491283</v>
+        <v>2691.149525323419</v>
       </c>
       <c r="O26" t="n">
-        <v>3753.419231834815</v>
+        <v>3320.445776666951</v>
       </c>
       <c r="P26" t="n">
-        <v>4256.008022214231</v>
+        <v>4141.615288136135</v>
       </c>
       <c r="Q26" t="n">
-        <v>4611.803466450438</v>
+        <v>4546.744210776185</v>
       </c>
       <c r="R26" t="n">
-        <v>4717.916770439021</v>
+        <v>4717.916770439022</v>
       </c>
       <c r="S26" t="n">
         <v>4625.057832282288</v>
       </c>
       <c r="T26" t="n">
-        <v>4422.428736315836</v>
+        <v>4422.428736315837</v>
       </c>
       <c r="U26" t="n">
         <v>4168.959457106966</v>
@@ -6297,28 +6297,28 @@
         <v>185.8226612101445</v>
       </c>
       <c r="H27" t="n">
-        <v>99.27368985543598</v>
+        <v>99.273689855436</v>
       </c>
       <c r="I27" t="n">
-        <v>94.35833540878042</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="J27" t="n">
-        <v>225.9354374172501</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="K27" t="n">
-        <v>225.9354374172501</v>
+        <v>397.3993847586448</v>
       </c>
       <c r="L27" t="n">
-        <v>679.7340670115775</v>
+        <v>851.1980143529722</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.652531621867</v>
+        <v>1400.116478963261</v>
       </c>
       <c r="N27" t="n">
-        <v>1806.507879548269</v>
+        <v>1437.902686215247</v>
       </c>
       <c r="O27" t="n">
-        <v>2312.912834496519</v>
+        <v>1944.307641163497</v>
       </c>
       <c r="P27" t="n">
         <v>2331.409196715653</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>851.3805702399465</v>
+        <v>411.834672703179</v>
       </c>
       <c r="C28" t="n">
-        <v>682.4443873120396</v>
+        <v>411.834672703179</v>
       </c>
       <c r="D28" t="n">
-        <v>532.3277478997038</v>
+        <v>261.7180332908432</v>
       </c>
       <c r="E28" t="n">
-        <v>384.4146543173106</v>
+        <v>261.7180332908432</v>
       </c>
       <c r="F28" t="n">
-        <v>237.5247068194003</v>
+        <v>261.7180332908432</v>
       </c>
       <c r="G28" t="n">
-        <v>237.5247068194003</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="H28" t="n">
-        <v>94.35833540878042</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="I28" t="n">
-        <v>94.35833540878042</v>
+        <v>94.35833540878045</v>
       </c>
       <c r="J28" t="n">
         <v>163.2581048092509</v>
@@ -6406,28 +6406,28 @@
         <v>2288.546551401335</v>
       </c>
       <c r="R28" t="n">
-        <v>2288.546551401335</v>
+        <v>2214.144859831204</v>
       </c>
       <c r="S28" t="n">
-        <v>2288.546551401335</v>
+        <v>2028.438948119389</v>
       </c>
       <c r="T28" t="n">
-        <v>2288.546551401335</v>
+        <v>1808.138470955393</v>
       </c>
       <c r="U28" t="n">
-        <v>1999.4624011857</v>
+        <v>1586.366925817814</v>
       </c>
       <c r="V28" t="n">
-        <v>1744.777912979813</v>
+        <v>1331.682437611927</v>
       </c>
       <c r="W28" t="n">
-        <v>1481.811165111734</v>
+        <v>1042.265267574966</v>
       </c>
       <c r="X28" t="n">
-        <v>1253.821614213716</v>
+        <v>814.2757166769488</v>
       </c>
       <c r="Y28" t="n">
-        <v>1033.029035070186</v>
+        <v>593.4831375334187</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2334.922984192267</v>
+        <v>2334.922984192268</v>
       </c>
       <c r="C29" t="n">
         <v>1965.960467251856</v>
       </c>
       <c r="D29" t="n">
-        <v>1607.694768645105</v>
+        <v>1607.694768645106</v>
       </c>
       <c r="E29" t="n">
         <v>1221.906516046861</v>
@@ -6464,49 +6464,49 @@
         <v>346.8712280413478</v>
       </c>
       <c r="K29" t="n">
-        <v>960.3284139507973</v>
+        <v>776.061115128809</v>
       </c>
       <c r="L29" t="n">
-        <v>1529.678182306615</v>
+        <v>1345.410883484627</v>
       </c>
       <c r="M29" t="n">
-        <v>2194.858939002391</v>
+        <v>2259.918194676644</v>
       </c>
       <c r="N29" t="n">
-        <v>2875.416824145407</v>
+        <v>2940.47607981966</v>
       </c>
       <c r="O29" t="n">
-        <v>3504.713075488939</v>
+        <v>3569.772331163193</v>
       </c>
       <c r="P29" t="n">
-        <v>4007.301865868355</v>
+        <v>4072.361121542609</v>
       </c>
       <c r="Q29" t="n">
-        <v>4546.744210776185</v>
+        <v>4611.803466450438</v>
       </c>
       <c r="R29" t="n">
         <v>4717.916770439022</v>
       </c>
       <c r="S29" t="n">
-        <v>4625.057832282288</v>
+        <v>4625.057832282289</v>
       </c>
       <c r="T29" t="n">
-        <v>4422.428736315837</v>
+        <v>4422.428736315838</v>
       </c>
       <c r="U29" t="n">
-        <v>4168.959457106966</v>
+        <v>4168.959457106967</v>
       </c>
       <c r="V29" t="n">
-        <v>3837.896569763395</v>
+        <v>3837.896569763396</v>
       </c>
       <c r="W29" t="n">
         <v>3485.127914493281</v>
       </c>
       <c r="X29" t="n">
-        <v>3111.662156232201</v>
+        <v>3111.662156232202</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.522824256389</v>
+        <v>2721.52282425639</v>
       </c>
     </row>
     <row r="30">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>795.2207581694721</v>
+        <v>526.1705324553626</v>
       </c>
       <c r="C31" t="n">
-        <v>626.2845752415652</v>
+        <v>526.1705324553626</v>
       </c>
       <c r="D31" t="n">
-        <v>476.1679358292295</v>
+        <v>376.0538930430268</v>
       </c>
       <c r="E31" t="n">
-        <v>328.2548422468363</v>
+        <v>228.1407994606337</v>
       </c>
       <c r="F31" t="n">
         <v>181.364894748926</v>
@@ -6643,28 +6643,28 @@
         <v>2288.546551401335</v>
       </c>
       <c r="R31" t="n">
-        <v>2288.546551401335</v>
+        <v>2214.144859831204</v>
       </c>
       <c r="S31" t="n">
-        <v>2288.546551401335</v>
+        <v>2028.438948119389</v>
       </c>
       <c r="T31" t="n">
-        <v>2068.24607423734</v>
+        <v>1808.138470955393</v>
       </c>
       <c r="U31" t="n">
-        <v>1779.161924021704</v>
+        <v>1519.054320739758</v>
       </c>
       <c r="V31" t="n">
-        <v>1524.477435815817</v>
+        <v>1264.369832533871</v>
       </c>
       <c r="W31" t="n">
-        <v>1235.060265778857</v>
+        <v>974.9526624969101</v>
       </c>
       <c r="X31" t="n">
-        <v>1007.070714880839</v>
+        <v>746.9631115988927</v>
       </c>
       <c r="Y31" t="n">
-        <v>976.8692229997118</v>
+        <v>526.1705324553626</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796684</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162836</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K32" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L32" t="n">
         <v>1336.032957050963</v>
@@ -6710,25 +6710,25 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U32" t="n">
         <v>3795.851627400161</v>
@@ -6740,10 +6740,10 @@
         <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
         <v>216.5575109835859</v>
@@ -6786,10 +6786,10 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>973.3971899277776</v>
+        <v>1357.074366803431</v>
       </c>
       <c r="N33" t="n">
-        <v>1551.25253785418</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O33" t="n">
         <v>1934.929714729833</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502136</v>
+        <v>872.8624197502108</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477755</v>
+        <v>735.8557341477726</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609086</v>
+        <v>617.6685920609056</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039843</v>
+        <v>501.6849958039811</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315428</v>
+        <v>386.7245456315394</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749488</v>
+        <v>251.2943450749453</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897929</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902793</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313937</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.45563102869</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597207</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966198</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127671</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237504</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357086</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645594</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073046</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254985</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I35" t="n">
         <v>84.98040897511622</v>
@@ -6938,7 +6938,7 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050963</v>
@@ -6950,7 +6950,7 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P35" t="n">
         <v>3813.656640612703</v>
@@ -6965,22 +6965,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U35" t="n">
         <v>3795.851627400162</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7014,19 +7014,19 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>301.7509472448914</v>
+        <v>808.1559021931415</v>
       </c>
       <c r="M36" t="n">
-        <v>850.6694118551806</v>
+        <v>1357.074366803431</v>
       </c>
       <c r="N36" t="n">
-        <v>1428.524759781583</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O36" t="n">
         <v>1934.929714729833</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502108</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477726</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609056</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G37" t="n">
         <v>251.2943450749443</v>
@@ -7108,10 +7108,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q37" t="n">
         <v>2529.521427597205</v>
@@ -7135,10 +7135,10 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="38">
@@ -7172,22 +7172,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951447</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P38" t="n">
         <v>3813.656640612704</v>
@@ -7251,25 +7251,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K39" t="n">
-        <v>216.5575109835859</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L39" t="n">
-        <v>670.3561405779133</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M39" t="n">
-        <v>1219.274605188202</v>
+        <v>1357.074366803431</v>
       </c>
       <c r="N39" t="n">
-        <v>1797.129953114605</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O39" t="n">
-        <v>2303.534908062855</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P39" t="n">
-        <v>2530.879212293269</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q39" t="n">
         <v>2530.879212293269</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749448</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H40" t="n">
         <v>140.0574709897931</v>
@@ -7330,13 +7330,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M40" t="n">
         <v>1285.552079040893</v>
@@ -7345,34 +7345,34 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7397,7 +7397,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G41" t="n">
         <v>342.8002736162838</v>
@@ -7409,22 +7409,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P41" t="n">
         <v>3813.656640612704</v>
@@ -7488,22 +7488,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
-        <v>140.8607658641353</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K42" t="n">
-        <v>443.9018152139996</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L42" t="n">
-        <v>897.700444808327</v>
+        <v>510.5988892561712</v>
       </c>
       <c r="M42" t="n">
-        <v>1446.618909418616</v>
+        <v>1059.51735386646</v>
       </c>
       <c r="N42" t="n">
-        <v>2024.474257345018</v>
+        <v>1637.372701792863</v>
       </c>
       <c r="O42" t="n">
-        <v>2530.879212293269</v>
+        <v>2143.777656741113</v>
       </c>
       <c r="P42" t="n">
         <v>2530.879212293269</v>
@@ -7555,10 +7555,10 @@
         <v>501.6849958039797</v>
       </c>
       <c r="F43" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
         <v>140.0574709897931</v>
@@ -7567,7 +7567,7 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K43" t="n">
         <v>459.5287020443611</v>
@@ -7625,19 +7625,19 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D44" t="n">
         <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.178257479668</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H44" t="n">
         <v>84.98040897511622</v>
@@ -7646,25 +7646,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076836</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q44" t="n">
         <v>4142.907144767228</v>
@@ -7679,19 +7679,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W44" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="45">
@@ -7737,13 +7737,13 @@
         <v>1390.738552529597</v>
       </c>
       <c r="N45" t="n">
-        <v>1968.593900456</v>
+        <v>1637.372701792863</v>
       </c>
       <c r="O45" t="n">
-        <v>2474.99885540425</v>
+        <v>2143.777656741113</v>
       </c>
       <c r="P45" t="n">
-        <v>2474.99885540425</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q45" t="n">
         <v>2530.879212293269</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502115</v>
+        <v>872.8624197502118</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477733</v>
+        <v>735.8557341477735</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609063</v>
+        <v>617.6685920609066</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039819</v>
+        <v>501.6849958039822</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315403</v>
+        <v>386.7245456315405</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749462</v>
+        <v>251.2943450749465</v>
       </c>
       <c r="H46" t="n">
         <v>140.057470989793</v>
@@ -7810,7 +7810,7 @@
         <v>459.5287020443614</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040894</v>
@@ -7840,16 +7840,16 @@
         <v>1887.747186237503</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X46" t="n">
         <v>1211.444469073044</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254983</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>153.8728130627227</v>
+        <v>153.8728130627231</v>
       </c>
       <c r="K2" t="n">
-        <v>179.3644308378004</v>
+        <v>193.741652684399</v>
       </c>
       <c r="L2" t="n">
-        <v>200.2255085709157</v>
+        <v>185.242930014988</v>
       </c>
       <c r="M2" t="n">
-        <v>189.1116999374103</v>
+        <v>189.1116999374112</v>
       </c>
       <c r="N2" t="n">
-        <v>186.6635219545522</v>
+        <v>187.2688786638835</v>
       </c>
       <c r="O2" t="n">
-        <v>191.1376071395894</v>
+        <v>176.1550285836618</v>
       </c>
       <c r="P2" t="n">
-        <v>185.1937372226574</v>
+        <v>200.1763157785865</v>
       </c>
       <c r="Q2" t="n">
-        <v>187.7321240684247</v>
+        <v>187.7321240684253</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>110.6535195450426</v>
+        <v>125.0307413916408</v>
       </c>
       <c r="K3" t="n">
-        <v>110.1802221368475</v>
+        <v>125.1628006927763</v>
       </c>
       <c r="L3" t="n">
-        <v>101.3604601356607</v>
+        <v>101.3604601356613</v>
       </c>
       <c r="M3" t="n">
-        <v>113.7130625770031</v>
+        <v>113.7130625770039</v>
       </c>
       <c r="N3" t="n">
-        <v>101.1666212144032</v>
+        <v>101.7719779237344</v>
       </c>
       <c r="O3" t="n">
-        <v>116.8221608664541</v>
+        <v>101.8395823105263</v>
       </c>
       <c r="P3" t="n">
-        <v>101.2635928810555</v>
+        <v>101.263592881056</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.0980393942944</v>
+        <v>118.1154608383663</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,19 +8140,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>128.5160244241713</v>
+        <v>128.2454336480135</v>
       </c>
       <c r="M4" t="n">
-        <v>130.7911269871051</v>
+        <v>131.3964836964359</v>
       </c>
       <c r="N4" t="n">
-        <v>120.6915263755733</v>
+        <v>120.6915263755736</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1401729903289</v>
+        <v>118.1575944344007</v>
       </c>
       <c r="P4" t="n">
-        <v>120.3587506912847</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8216,25 +8216,25 @@
         <v>106.1778528825897</v>
       </c>
       <c r="K5" t="n">
-        <v>101.3168990889198</v>
+        <v>86.3343205329914</v>
       </c>
       <c r="L5" t="n">
-        <v>84.8134304527301</v>
+        <v>69.83085189680168</v>
       </c>
       <c r="M5" t="n">
-        <v>45.71094694826513</v>
+        <v>60.69352550419356</v>
       </c>
       <c r="N5" t="n">
-        <v>41.79018535534016</v>
+        <v>56.77276391126858</v>
       </c>
       <c r="O5" t="n">
-        <v>52.9312478569183</v>
+        <v>67.91382641284673</v>
       </c>
       <c r="P5" t="n">
         <v>80.02509125530648</v>
       </c>
       <c r="Q5" t="n">
-        <v>123.7374293586008</v>
+        <v>108.7548508026724</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>88.66633172286768</v>
+        <v>87.64362914449418</v>
       </c>
       <c r="K6" t="n">
-        <v>46.99300293891658</v>
+        <v>61.975581494845</v>
       </c>
       <c r="L6" t="n">
-        <v>31.38002469279592</v>
+        <v>16.3974461368675</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>26.54144959291372</v>
       </c>
       <c r="Q6" t="n">
-        <v>82.12556286539309</v>
+        <v>83.1482654437666</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,16 +8374,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>74.21384070235177</v>
+        <v>89.1964192582802</v>
       </c>
       <c r="L7" t="n">
-        <v>79.74286725698869</v>
+        <v>64.76028870106026</v>
       </c>
       <c r="M7" t="n">
-        <v>79.97202796488793</v>
+        <v>79.36667125555749</v>
       </c>
       <c r="N7" t="n">
-        <v>69.88447255268129</v>
+        <v>70.48982926201172</v>
       </c>
       <c r="O7" t="n">
         <v>71.78820176989292</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928469</v>
+        <v>73.01783107116394</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>66.78462588923453</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8623,13 +8623,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
-        <v>106.0020650282192</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>74.51411407702631</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.89011047839809</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9884,19 +9884,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>26.81307078957781</v>
+        <v>76.64486715709734</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,13 +10112,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>186.1285846686749</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>251.8450045416582</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.151079231931362e-12</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6861009032421</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I28" t="n">
         <v>86.13649374674407</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>73.65767465442973</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>183.8488525946973</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>218.097472392356</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>66.63947902727557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>26.18591794719237</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>99.11290235834056</v>
       </c>
       <c r="G31" t="n">
         <v>165.6861009032421</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>73.65767465442973</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>183.8488525946973</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>188.6851763897787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-13</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25795,10 +25795,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>675148.6521509085</v>
+        <v>675148.6521509087</v>
       </c>
     </row>
     <row r="3">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>622153.3927989411</v>
+        <v>622153.3927989412</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.769864284</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642837</v>
       </c>
       <c r="E2" t="n">
-        <v>821041.7698642845</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="F2" t="n">
-        <v>821041.7698642843</v>
+        <v>821041.7698642842</v>
       </c>
       <c r="G2" t="n">
-        <v>821041.7698642845</v>
+        <v>821041.7698642848</v>
       </c>
       <c r="H2" t="n">
-        <v>821041.7698642845</v>
+        <v>821041.7698642847</v>
       </c>
       <c r="I2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642839</v>
       </c>
       <c r="J2" t="n">
         <v>802955.0695705559</v>
       </c>
       <c r="K2" t="n">
-        <v>802955.0695705556</v>
+        <v>802955.0695705559</v>
       </c>
       <c r="L2" t="n">
         <v>821041.7698642848</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642841</v>
+        <v>821041.7698642847</v>
       </c>
       <c r="N2" t="n">
         <v>821041.7698642847</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642842</v>
+        <v>821041.7698642844</v>
       </c>
       <c r="P2" t="n">
-        <v>821041.7698642842</v>
+        <v>821041.7698642845</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81762.70379394513</v>
+        <v>81762.70379394389</v>
       </c>
       <c r="C3" t="n">
-        <v>165659.1049423872</v>
+        <v>165659.1049423884</v>
       </c>
       <c r="D3" t="n">
-        <v>354093.2457834521</v>
+        <v>354093.2457834527</v>
       </c>
       <c r="E3" t="n">
-        <v>820929.7863246463</v>
+        <v>820929.786324646</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>34591.079081308</v>
+        <v>34591.07908130783</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52521.07975777284</v>
+        <v>52521.079757773</v>
       </c>
       <c r="M3" t="n">
         <v>204957.1230692802</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.831690603168681e-11</v>
+        <v>7.389644451905042e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>396068.2800999425</v>
+        <v>396068.2800999428</v>
       </c>
       <c r="C4" t="n">
         <v>356875.1954499232</v>
       </c>
       <c r="D4" t="n">
-        <v>255177.1421685146</v>
+        <v>255177.1421685144</v>
       </c>
       <c r="E4" t="n">
+        <v>39739.87518598542</v>
+      </c>
+      <c r="F4" t="n">
+        <v>39739.87518598544</v>
+      </c>
+      <c r="G4" t="n">
+        <v>39739.87518598542</v>
+      </c>
+      <c r="H4" t="n">
+        <v>39739.87518598542</v>
+      </c>
+      <c r="I4" t="n">
+        <v>39739.87518598542</v>
+      </c>
+      <c r="J4" t="n">
+        <v>20733.22988305686</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20733.22988305688</v>
+      </c>
+      <c r="L4" t="n">
         <v>39739.87518598545</v>
       </c>
-      <c r="F4" t="n">
-        <v>39739.87518598547</v>
-      </c>
-      <c r="G4" t="n">
-        <v>39739.8751859855</v>
-      </c>
-      <c r="H4" t="n">
-        <v>39739.87518598551</v>
-      </c>
-      <c r="I4" t="n">
-        <v>39739.87518598554</v>
-      </c>
-      <c r="J4" t="n">
-        <v>20733.22988305685</v>
-      </c>
-      <c r="K4" t="n">
-        <v>20733.22988305685</v>
-      </c>
-      <c r="L4" t="n">
-        <v>39739.87518598559</v>
-      </c>
       <c r="M4" t="n">
+        <v>39739.87518598544</v>
+      </c>
+      <c r="N4" t="n">
         <v>39739.87518598542</v>
       </c>
-      <c r="N4" t="n">
-        <v>39739.87518598547</v>
-      </c>
       <c r="O4" t="n">
-        <v>39739.87518598544</v>
+        <v>39739.87518598541</v>
       </c>
       <c r="P4" t="n">
         <v>39739.8751859855</v>
@@ -26467,43 +26467,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36274.68277223819</v>
+        <v>36274.68277223816</v>
       </c>
       <c r="C5" t="n">
         <v>40240.59596784291</v>
       </c>
       <c r="D5" t="n">
-        <v>61145.70223437328</v>
+        <v>61145.70223437333</v>
       </c>
       <c r="E5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="F5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="J5" t="n">
-        <v>99576.2200901918</v>
+        <v>99576.22009019181</v>
       </c>
       <c r="K5" t="n">
         <v>99576.22009019181</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="M5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="O5" t="n">
         <v>95106.43410215527</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>306936.1031981577</v>
+        <v>306936.1031981592</v>
       </c>
       <c r="C6" t="n">
-        <v>258266.8735041301</v>
+        <v>258266.8735041288</v>
       </c>
       <c r="D6" t="n">
-        <v>150625.6796779434</v>
+        <v>150625.6796779433</v>
       </c>
       <c r="E6" t="n">
-        <v>-134734.3257485025</v>
+        <v>-134734.3257485034</v>
       </c>
       <c r="F6" t="n">
-        <v>686195.4605761436</v>
+        <v>686195.4605761435</v>
       </c>
       <c r="G6" t="n">
-        <v>686195.4605761438</v>
+        <v>686195.460576144</v>
       </c>
       <c r="H6" t="n">
-        <v>686195.4605761438</v>
+        <v>686195.4605761439</v>
       </c>
       <c r="I6" t="n">
-        <v>686195.4605761425</v>
+        <v>686195.4605761431</v>
       </c>
       <c r="J6" t="n">
-        <v>648054.5405159993</v>
+        <v>648009.3237652651</v>
       </c>
       <c r="K6" t="n">
-        <v>682645.6195973069</v>
+        <v>682600.4028465729</v>
       </c>
       <c r="L6" t="n">
         <v>633674.3808183711</v>
       </c>
       <c r="M6" t="n">
-        <v>481238.3375068632</v>
+        <v>481238.3375068638</v>
       </c>
       <c r="N6" t="n">
         <v>686195.4605761439</v>
       </c>
       <c r="O6" t="n">
-        <v>686195.4605761435</v>
+        <v>686195.4605761438</v>
       </c>
       <c r="P6" t="n">
-        <v>686195.4605761435</v>
+        <v>686195.4605761437</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O2" t="n">
         <v>31.61020235221394</v>
       </c>
       <c r="P2" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.63954110264881</v>
+        <v>79.63954110264753</v>
       </c>
       <c r="C3" t="n">
         <v>261.5621647542411</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380646</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
         <v>1278.159870620123</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.98257855592842</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="C4" t="n">
-        <v>14.98257855592842</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="D4" t="n">
-        <v>239.8079481415045</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="E4" t="n">
         <v>1062.255112188953</v>
@@ -26811,13 +26811,13 @@
         <v>1062.255112188953</v>
       </c>
       <c r="J4" t="n">
-        <v>1179.479192609755</v>
+        <v>1179.479192609756</v>
       </c>
       <c r="K4" t="n">
         <v>1179.479192609756</v>
       </c>
       <c r="L4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
         <v>1062.255112188953</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>9.237055564881302e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.63954110264881</v>
+        <v>79.63954110264753</v>
       </c>
       <c r="C3" t="n">
-        <v>181.9226236515923</v>
+        <v>181.9226236515936</v>
       </c>
       <c r="D3" t="n">
-        <v>331.9139355838235</v>
+        <v>331.913935583824</v>
       </c>
       <c r="E3" t="n">
-        <v>684.6837702820579</v>
+        <v>684.6837702820577</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.98257855592842</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>224.8253695855761</v>
+        <v>224.8253695855767</v>
       </c>
       <c r="E4" t="n">
-        <v>822.447164047448</v>
+        <v>822.4471640474477</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>107.6012891647729</v>
+        <v>107.601289164774</v>
       </c>
       <c r="M4" t="n">
-        <v>822.4471640474485</v>
+        <v>822.4471640474477</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>14.98257855592842</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>224.8253695855761</v>
+        <v>224.8253695855767</v>
       </c>
       <c r="M4" t="n">
-        <v>822.447164047448</v>
+        <v>822.4471640474477</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>375.6097606219114</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>321.2133956188638</v>
+        <v>336.1959741747923</v>
       </c>
       <c r="I2" t="n">
-        <v>198.1329612955924</v>
+        <v>198.1329612955926</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>114.7753541639579</v>
+        <v>123.4373232695363</v>
       </c>
       <c r="S2" t="n">
-        <v>201.7244473033243</v>
+        <v>201.7244473033244</v>
       </c>
       <c r="T2" t="n">
-        <v>221.6943537202043</v>
+        <v>206.7117751642759</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3200401911</v>
+        <v>236.3374616351715</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>151.5506050939389</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>134.248410372577</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>130.0866338374555</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.1722170181974</v>
@@ -27476,7 +27476,7 @@
         <v>110.5810454675528</v>
       </c>
       <c r="I3" t="n">
-        <v>83.49879891126608</v>
+        <v>83.49879891126618</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>89.52219883331203</v>
+        <v>89.5221988333122</v>
       </c>
       <c r="S3" t="n">
-        <v>155.3046908497976</v>
+        <v>168.5013460418594</v>
       </c>
       <c r="T3" t="n">
         <v>199.4742688997902</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>190.790406647549</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>190.7001172213759</v>
       </c>
     </row>
     <row r="4">
@@ -27540,28 +27540,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>133.6328944622839</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>130.4384694670028</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.8473670712245</v>
       </c>
       <c r="H4" t="n">
-        <v>147.7536735252403</v>
+        <v>160.9503287173021</v>
       </c>
       <c r="I4" t="n">
         <v>151.1316617802491</v>
       </c>
       <c r="J4" t="n">
-        <v>83.20579140920884</v>
+        <v>83.20579140920901</v>
       </c>
       <c r="K4" t="n">
-        <v>5.584355181754141</v>
+        <v>5.584355181754407</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>74.13647254519441</v>
+        <v>74.13647254519461</v>
       </c>
       <c r="R4" t="n">
-        <v>170.836060716617</v>
+        <v>155.8534821606887</v>
       </c>
       <c r="S4" t="n">
-        <v>221.5138275403529</v>
+        <v>221.513827540353</v>
       </c>
       <c r="T4" t="n">
-        <v>227.3319732919168</v>
+        <v>212.3493947359884</v>
       </c>
       <c r="U4" t="n">
         <v>286.3111959590054</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>271.5404197806625</v>
       </c>
       <c r="X4" t="n">
-        <v>210.7270768331087</v>
+        <v>212.5130001969754</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>366.9477915163334</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>313.7234857918413</v>
+        <v>321.6541076666592</v>
       </c>
       <c r="I5" t="n">
         <v>169.9376971817109</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>76.76548555453728</v>
+        <v>83.81744223564777</v>
       </c>
       <c r="S5" t="n">
         <v>185.0588722823769</v>
       </c>
       <c r="T5" t="n">
-        <v>218.4928812175517</v>
+        <v>203.5103026616233</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2615324126392</v>
+        <v>236.2789538567107</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27701,7 +27701,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>142.6625018994725</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27743,16 +27743,16 @@
         <v>65.22694731999182</v>
       </c>
       <c r="S6" t="n">
-        <v>161.2330223516283</v>
+        <v>146.2504437956999</v>
       </c>
       <c r="T6" t="n">
-        <v>182.9144555218257</v>
+        <v>197.8970340777542</v>
       </c>
       <c r="U6" t="n">
-        <v>210.9217900111661</v>
+        <v>212.7077133750328</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>217.8180085934968</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>192.4860405852426</v>
+        <v>190.7001172213759</v>
       </c>
     </row>
     <row r="7">
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>133.6328944622839</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>133.2373074545074</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>152.5367313251047</v>
+        <v>167.5193098810331</v>
       </c>
       <c r="H7" t="n">
         <v>158.0336020626912</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.66615637380398</v>
+        <v>31.68357781787555</v>
       </c>
       <c r="R7" t="n">
-        <v>156.0854165103748</v>
+        <v>141.1028379544464</v>
       </c>
       <c r="S7" t="n">
         <v>215.7966854167447</v>
       </c>
       <c r="T7" t="n">
-        <v>225.9302743883718</v>
+        <v>212.73361919631</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2933019304495</v>
+        <v>271.3107233745211</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7270768331087</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>321.6198421220474</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>142.1224219307566</v>
       </c>
       <c r="F8" t="n">
-        <v>167.0680976002069</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>173.1089558044316</v>
       </c>
       <c r="H8" t="n">
-        <v>75.23293593371108</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938904</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27910,7 +27910,7 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>87.94431032863039</v>
+        <v>87.94431032862977</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>181.8911436747273</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>64.52734110753347</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.0669836643703</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664346</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I9" t="n">
-        <v>45.4458084395867</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183515</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>97.67659154863554</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.10151039796108</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>7.415583561429628</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176904</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001187</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>46.45270651659185</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C11" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D11" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E11" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F11" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G11" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H11" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I11" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T11" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U11" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V11" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W11" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X11" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C13" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D13" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E13" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F13" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G13" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H13" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I13" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J13" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K13" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L13" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M13" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N13" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O13" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P13" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R13" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S13" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T13" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U13" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V13" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W13" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X13" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221457</v>
       </c>
       <c r="U14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221514</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221429</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221423</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221531</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605503</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221579</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="26">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221429</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221446</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="41">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="C44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="D44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="E44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="F44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="G44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="H44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="T44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="U44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="V44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="W44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="X44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="C46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="D46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="E46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="F46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="G46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="H46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="I46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="J46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="K46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="L46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="M46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="N46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="O46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="P46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="R46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="S46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="T46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="U46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="V46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="W46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="X46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221403</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3201589592066281</v>
+        <v>0.320158959206623</v>
       </c>
       <c r="H2" t="n">
-        <v>3.278827940974881</v>
+        <v>3.278827940974828</v>
       </c>
       <c r="I2" t="n">
-        <v>12.34292827481354</v>
+        <v>12.34292827481334</v>
       </c>
       <c r="J2" t="n">
-        <v>27.17309146396358</v>
+        <v>27.17309146396314</v>
       </c>
       <c r="K2" t="n">
-        <v>40.72542020718016</v>
+        <v>40.7254202071795</v>
       </c>
       <c r="L2" t="n">
-        <v>50.52348495500001</v>
+        <v>50.5234849549992</v>
       </c>
       <c r="M2" t="n">
-        <v>56.21711184579088</v>
+        <v>56.21711184578998</v>
       </c>
       <c r="N2" t="n">
-        <v>57.12676348863672</v>
+        <v>57.1267634886358</v>
       </c>
       <c r="O2" t="n">
-        <v>53.94318283802581</v>
+        <v>53.94318283802494</v>
       </c>
       <c r="P2" t="n">
-        <v>46.03925853261217</v>
+        <v>46.03925853261143</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.57356580602479</v>
+        <v>34.57356580602423</v>
       </c>
       <c r="R2" t="n">
-        <v>20.11118522126337</v>
+        <v>20.11118522126305</v>
       </c>
       <c r="S2" t="n">
-        <v>7.295622282921046</v>
+        <v>7.295622282920928</v>
       </c>
       <c r="T2" t="n">
-        <v>1.401495843927015</v>
+        <v>1.401495843926993</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02561271673653024</v>
+        <v>0.02561271673652983</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1713001450132446</v>
+        <v>0.1713001450132419</v>
       </c>
       <c r="H3" t="n">
-        <v>1.654398768943705</v>
+        <v>1.654398768943678</v>
       </c>
       <c r="I3" t="n">
-        <v>5.897833940148993</v>
+        <v>5.897833940148898</v>
       </c>
       <c r="J3" t="n">
-        <v>16.18410712162413</v>
+        <v>16.18410712162387</v>
       </c>
       <c r="K3" t="n">
-        <v>27.66121683751152</v>
+        <v>27.66121683751108</v>
       </c>
       <c r="L3" t="n">
-        <v>37.19391964421349</v>
+        <v>37.19391964421289</v>
       </c>
       <c r="M3" t="n">
-        <v>43.4035499009436</v>
+        <v>43.4035499009429</v>
       </c>
       <c r="N3" t="n">
-        <v>44.55231271552804</v>
+        <v>44.55231271552732</v>
       </c>
       <c r="O3" t="n">
-        <v>40.75666213391877</v>
+        <v>40.75666213391812</v>
       </c>
       <c r="P3" t="n">
-        <v>32.71081453327476</v>
+        <v>32.71081453327423</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.86631324765558</v>
+        <v>21.86631324765522</v>
       </c>
       <c r="R3" t="n">
-        <v>10.6356353193311</v>
+        <v>10.63563531933093</v>
       </c>
       <c r="S3" t="n">
-        <v>3.181825061978467</v>
+        <v>3.181825061978416</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6904597950314549</v>
+        <v>0.6904597950314438</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01126974638245031</v>
+        <v>0.01126974638245013</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1436122872342847</v>
+        <v>0.1436122872342824</v>
       </c>
       <c r="H4" t="n">
-        <v>1.27684379013755</v>
+        <v>1.27684379013753</v>
       </c>
       <c r="I4" t="n">
-        <v>4.318813147009218</v>
+        <v>4.318813147009148</v>
       </c>
       <c r="J4" t="n">
-        <v>10.15338870746393</v>
+        <v>10.15338870746377</v>
       </c>
       <c r="K4" t="n">
-        <v>16.68513664412871</v>
+        <v>16.68513664412844</v>
       </c>
       <c r="L4" t="n">
-        <v>21.35123041299539</v>
+        <v>21.35123041299504</v>
       </c>
       <c r="M4" t="n">
-        <v>22.51187880709792</v>
+        <v>22.51187880709756</v>
       </c>
       <c r="N4" t="n">
-        <v>21.97659664558833</v>
+        <v>21.97659664558798</v>
       </c>
       <c r="O4" t="n">
-        <v>20.29894401744236</v>
+        <v>20.29894401744204</v>
       </c>
       <c r="P4" t="n">
-        <v>17.36925335786294</v>
+        <v>17.36925335786266</v>
       </c>
       <c r="Q4" t="n">
-        <v>12.02557070649997</v>
+        <v>12.02557070649978</v>
       </c>
       <c r="R4" t="n">
-        <v>6.457330660552473</v>
+        <v>6.457330660552369</v>
       </c>
       <c r="S4" t="n">
-        <v>2.502770496619307</v>
+        <v>2.502770496619266</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6136161363646709</v>
+        <v>0.6136161363646611</v>
       </c>
       <c r="U4" t="n">
-        <v>0.007833397485506448</v>
+        <v>0.007833397485506322</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.385833569198248</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055156</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651554</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J8" t="n">
-        <v>202.49464189374</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779019</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712528</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074821</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N8" t="n">
-        <v>425.7102483359667</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822516</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426698</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457574</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411496</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810513</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916533</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840365</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H9" t="n">
         <v>12.32862615985301</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182838</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847382</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070427</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L9" t="n">
-        <v>277.170135351282</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842452</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900651</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947075</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671572</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607456</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080798</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784624</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308313</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897144</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888313</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207009</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784128</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490373</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K10" t="n">
-        <v>124.338107579024</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889952</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676925</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N10" t="n">
-        <v>163.770216344109</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714136</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P10" t="n">
-        <v>129.4361645720919</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104776</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937814</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S10" t="n">
-        <v>18.6507161368536</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522791</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H11" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I11" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J11" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K11" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L11" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M11" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N11" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O11" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P11" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q11" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R11" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S11" t="n">
         <v>117.0897208110796</v>
@@ -31832,37 +31832,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H12" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I12" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J12" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K12" t="n">
-        <v>443.9435090247269</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L12" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M12" t="n">
-        <v>696.5971294879668</v>
+        <v>601.8588519561649</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>654.1164009578282</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P12" t="n">
-        <v>455.2629314811909</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q12" t="n">
         <v>350.9392912691326</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S12" t="n">
         <v>51.06610426486996</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H13" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I13" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J13" t="n">
         <v>162.9549067838146</v>
@@ -31923,31 +31923,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L13" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M13" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N13" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O13" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P13" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q13" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R13" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S13" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T13" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U13" t="n">
         <v>0.1257206430118155</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H14" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I14" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L14" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N14" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R14" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S14" t="n">
         <v>117.0897208110796</v>
@@ -32069,34 +32069,34 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H15" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J15" t="n">
-        <v>208.2975609288281</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K15" t="n">
-        <v>443.9435090247269</v>
+        <v>181.5397624588575</v>
       </c>
       <c r="L15" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M15" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N15" t="n">
-        <v>715.0339827160627</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O15" t="n">
-        <v>654.1164009578282</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H16" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I16" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J16" t="n">
         <v>162.9549067838146</v>
@@ -32160,31 +32160,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L16" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M16" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N16" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P16" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q16" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R16" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S16" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I17" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N17" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32306,37 +32306,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
         <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>392.4972796419695</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155583</v>
+        <v>224.608355801395</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160627</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578282</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S18" t="n">
         <v>51.06610426486996</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H19" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I19" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
         <v>162.9549067838146</v>
@@ -32397,31 +32397,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I20" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N20" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32543,37 +32543,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>356.8015786407994</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N21" t="n">
-        <v>715.0339827160627</v>
+        <v>681.029754709834</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578282</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892349</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q21" t="n">
         <v>350.9392912691326</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877213</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486996</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H22" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I22" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
         <v>162.9549067838146</v>
@@ -32634,31 +32634,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L22" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M22" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N22" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P22" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171343</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H23" t="n">
-        <v>52.62293376879728</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I23" t="n">
         <v>198.0955112043509</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383704</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869749</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654295</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N23" t="n">
-        <v>916.845270811759</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565676</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829624</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.881956697201</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R23" t="n">
-        <v>322.7706933581559</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S23" t="n">
         <v>117.0897208110796</v>
@@ -32780,37 +32780,37 @@
         <v>2.749249533031962</v>
       </c>
       <c r="H24" t="n">
-        <v>26.551962595335</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781098</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>349.2052314929259</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155583</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
-        <v>696.5971294879668</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>169.5095981964501</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578282</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892349</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q24" t="n">
         <v>350.9392912691326</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877213</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486996</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.304878455216614</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H25" t="n">
-        <v>20.49246481092591</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I25" t="n">
-        <v>69.3139811805142</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J25" t="n">
         <v>162.9549067838146</v>
@@ -32871,31 +32871,31 @@
         <v>267.7849696151666</v>
       </c>
       <c r="L25" t="n">
-        <v>342.6725659692047</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M25" t="n">
-        <v>361.3001745754552</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N25" t="n">
-        <v>352.7092639696481</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246175</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P25" t="n">
-        <v>278.7645724381984</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q25" t="n">
         <v>193.0021404636385</v>
       </c>
       <c r="R25" t="n">
-        <v>103.6357167227397</v>
+        <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
         <v>40.16774544227498</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925531</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -33023,10 +33023,10 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
         <v>596.9368339155584</v>
@@ -33035,13 +33035,13 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N27" t="n">
-        <v>715.0339827160628</v>
+        <v>169.5095981964506</v>
       </c>
       <c r="O27" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P27" t="n">
-        <v>152.6576015750716</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q27" t="n">
         <v>350.9392912691326</v>
@@ -33506,13 +33506,13 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>529.6867378368194</v>
       </c>
       <c r="N33" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>530.1489483592454</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>524.986079689235</v>
@@ -33734,13 +33734,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L36" t="n">
-        <v>357.5145194463138</v>
+        <v>430.0264422644108</v>
       </c>
       <c r="M36" t="n">
         <v>696.5971294879669</v>
@@ -33749,7 +33749,7 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>524.986079689235</v>
@@ -33971,28 +33971,28 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J39" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L39" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
-        <v>696.5971294879669</v>
+        <v>662.5929014817382</v>
       </c>
       <c r="N39" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>363.6151187581826</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R39" t="n">
         <v>170.6946332877214</v>
@@ -34208,13 +34208,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J42" t="n">
-        <v>183.2824316050698</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>596.9368339155584</v>
+        <v>262.3699665790566</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879669</v>
@@ -34226,7 +34226,7 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34457,16 +34457,16 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
-        <v>715.0339827160628</v>
+        <v>380.4671153795611</v>
       </c>
       <c r="O45" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q45" t="n">
-        <v>196.4265790244245</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>170.6946332877214</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>14.37722184659799</v>
       </c>
       <c r="L2" t="n">
-        <v>14.98257855592842</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>14.98257855592842</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="N2" t="n">
-        <v>14.37722184659799</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="O2" t="n">
-        <v>14.98257855592842</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>14.37722184659799</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>14.98257855592842</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="N3" t="n">
-        <v>14.37722184659799</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="O3" t="n">
-        <v>14.98257855592842</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.98257855592842</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>14.98257855592842</v>
+        <v>14.71198777977027</v>
       </c>
       <c r="M4" t="n">
-        <v>14.37722184659799</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="N4" t="n">
-        <v>14.98257855592842</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="O4" t="n">
-        <v>14.98257855592842</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>14.64781262275615</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>14.37722184659799</v>
       </c>
       <c r="K5" t="n">
-        <v>14.98257855592842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>14.98257855592842</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>14.98257855592842</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>14.98257855592842</v>
+        <v>13.95987597755493</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="L6" t="n">
-        <v>14.98257855592842</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0.4173458690430607</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.95987597755492</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="L7" t="n">
-        <v>14.98257855592842</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>14.98257855592842</v>
+        <v>14.37722184659799</v>
       </c>
       <c r="N7" t="n">
-        <v>14.37722184659799</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>14.98257855592842</v>
+        <v>14.98257855592843</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.4487373670537</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292135</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012656</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802094</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393758</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605649</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874002</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130796</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>66.78462588923557</v>
       </c>
       <c r="K9" t="n">
-        <v>68.2907269326837</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>138.6157555714078</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622268</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.6633754067318</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>161.123548150263</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528269</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>89.75123316395862</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,25 +35331,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531411</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493114</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295331</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233376</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O10" t="n">
-        <v>118.8138283477901</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369854</v>
+        <v>66.22227459997072</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K11" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L11" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M11" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N11" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O11" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P11" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q11" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R11" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>306.102070050368</v>
       </c>
       <c r="L12" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M12" t="n">
-        <v>554.4630955659484</v>
+        <v>459.7248180341467</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>511.5201565133838</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P12" t="n">
-        <v>321.2885240668606</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q12" t="n">
         <v>210.9575171831111</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P13" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q13" t="n">
         <v>138.4502995641581</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116848</v>
       </c>
       <c r="K14" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L14" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N14" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348816</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P14" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R14" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>81.45993426216137</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K15" t="n">
-        <v>306.102070050368</v>
+        <v>43.69832348449846</v>
       </c>
       <c r="L15" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M15" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6922706327294</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O15" t="n">
-        <v>511.5201565133838</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35820,7 +35820,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P16" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q16" t="n">
         <v>138.4502995641581</v>
@@ -35884,28 +35884,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K17" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N17" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>254.6558406676105</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356841</v>
+        <v>86.05397602152078</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327294</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133838</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36057,7 +36057,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q19" t="n">
         <v>138.4502995641581</v>
@@ -36121,28 +36121,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N20" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>218.9601396664405</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327294</v>
+        <v>549.6880426265008</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133838</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749046</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q21" t="n">
         <v>210.9575171831111</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375738</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36294,7 +36294,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q22" t="n">
         <v>138.4502995641581</v>
@@ -36358,28 +36358,28 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K23" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381568</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N23" t="n">
         <v>687.4322072151681</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348808</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227514</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>211.3637925185669</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356841</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4630955659484</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>38.16788611311679</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133838</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749046</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q24" t="n">
         <v>210.9575171831111</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375738</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,10 +36516,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
         <v>432.4942538895098</v>
@@ -36531,7 +36531,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q25" t="n">
         <v>138.4502995641581</v>
@@ -36604,19 +36604,19 @@
         <v>671.8997542381569</v>
       </c>
       <c r="N26" t="n">
-        <v>1124.779131627152</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O26" t="n">
         <v>635.6527791348809</v>
       </c>
       <c r="P26" t="n">
-        <v>507.665444827693</v>
+        <v>829.4641529991757</v>
       </c>
       <c r="Q26" t="n">
-        <v>359.3893376123294</v>
+        <v>409.2211339798489</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440239</v>
+        <v>172.9015754170063</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
         <v>458.3824541356842</v>
@@ -36683,13 +36683,13 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327296</v>
+        <v>38.16788611311724</v>
       </c>
       <c r="O27" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P27" t="n">
-        <v>18.68319416074139</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q27" t="n">
         <v>210.9575171831111</v>
@@ -36832,13 +36832,13 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K29" t="n">
-        <v>619.653723140858</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L29" t="n">
         <v>575.1007761169878</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381569</v>
+        <v>923.7447587798151</v>
       </c>
       <c r="N29" t="n">
         <v>687.4322072151681</v>
@@ -36853,7 +36853,7 @@
         <v>544.8912574826563</v>
       </c>
       <c r="R29" t="n">
-        <v>172.9015754170063</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R32" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>387.552703914801</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>387.552703914801</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>391.0116722749048</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.205929019356</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.49425388951</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010909</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908714</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
-        <v>307.6533340553061</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641583</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L36" t="n">
-        <v>218.9601396664396</v>
+        <v>291.4720624845367</v>
       </c>
       <c r="M36" t="n">
         <v>554.4630955659486</v>
@@ -37397,7 +37397,7 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>391.0116722749048</v>
@@ -37473,7 +37473,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O37" t="n">
         <v>381.9794231908712</v>
@@ -37546,7 +37546,7 @@
         <v>433.5251384721831</v>
       </c>
       <c r="L38" t="n">
-        <v>575.1007761169886</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M38" t="n">
         <v>671.8997542381569</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
-        <v>554.4630955659486</v>
+        <v>520.4588675597198</v>
       </c>
       <c r="N39" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>229.6407113438524</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R39" t="n">
         <v>25.01512932375741</v>
@@ -37701,10 +37701,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M40" t="n">
         <v>432.4942538895098</v>
@@ -37780,7 +37780,7 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K41" t="n">
-        <v>433.5251384721837</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L41" t="n">
         <v>575.1007761169878</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>56.44480493840307</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>458.3824541356842</v>
+        <v>123.8155867991825</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
@@ -37874,7 +37874,7 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M43" t="n">
         <v>432.4942538895098</v>
@@ -38029,7 +38029,7 @@
         <v>687.4322072151681</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348821</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P44" t="n">
         <v>507.665444827693</v>
@@ -38105,16 +38105,16 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327296</v>
+        <v>249.1254032962278</v>
       </c>
       <c r="O45" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.44480493840295</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>25.01512932375741</v>
